--- a/DOM_Banner/output/dept_banner/Govinda Adhikari_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Govinda Adhikari_2022.xlsx
@@ -1511,7 +1511,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3029306217", "https://openalex.org/W2348720246", "https://openalex.org/W4306255588", "https://openalex.org/W4213403621", "https://openalex.org/W4221148675", "https://openalex.org/W103089928", "https://openalex.org/W4226337345", "https://openalex.org/W2735035532", "https://openalex.org/W4206264227", "https://openalex.org/W3033076790")</t>
+          <t>c("https://openalex.org/W4213022422", "https://openalex.org/W2098437617", "https://openalex.org/W4232122731", "https://openalex.org/W2404025295", "https://openalex.org/W1607104982", "https://openalex.org/W4290152444", "https://openalex.org/W2287473977", "https://openalex.org/W2415867850", "https://openalex.org/W2217048929", "https://openalex.org/W2170154306")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Govinda Adhikari_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Govinda Adhikari_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Department of Physics, University of California San Diego, La Jolla, California 92093, USA; Physics Institute, University of São Paulo, 05508-090, São Paulo, Brazil; Department of Physics and Astronomy, Seoul National University, Seoul 08826, Republic of Korea; Department of Physics and Astronomy, Seoul National University, Seoul 08826, Republic of Korea; Department of Physics and Astronomy, University of Sheffield, Sheffield S3 7RH, United Kingdom; Physics Institute, University of São Paulo, 05508-090, São Paulo, Brazil; Department of Physics, Chung-Ang University, Seoul 06973, Republic of Korea; Center for Exotic Nuclear Studies, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Science Education, Ewha Womans University, Seoul 03760, Republic of Korea; IBS School, University of Science and Technology (UST), Daejeon 34113, Republic of Korea; Department of Physics and Wright Laboratory, Yale University, New Haven, Connecticut 06520, USA; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Physics and Wright Laboratory, Yale University, New Haven, Connecticut 06520, USA; Department of Physics and Astronomy, Seoul National University, Seoul 08826, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Physics and Wisconsin IceCube Particle Astrophysics Center, University of Wisconsin-Madison, Madison, Wisconsin 53706, USA; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Physics, Kyungpook National University, Daegu 41566, Republic of Korea; Department of Physics, Chung-Ang University, Seoul 06973, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Physics and Astronomy, Seoul National University, Seoul 08826, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; IBS School, University of Science and Technology (UST), Daejeon 34113, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Physics, Sejong University, Seoul 05006, Republic of Korea; IBS School, University of Science and Technology (UST), Daejeon 34113, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; IBS School, University of Science and Technology (UST), Daejeon 34113, Republic of Korea; Korea Research Institute of Standards and Science, Daejeon 34113, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; IBS School, University of Science and Technology (UST), Daejeon 34113, Republic of Korea; Department of Physics, Kyungpook National University, Daegu 41566, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Physics, Kyungpook National University, Daegu 41566, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; IBS School, University of Science and Technology (UST), Daejeon 34113, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Physics, Kyungpook National University, Daegu 41566, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; IBS School, University of Science and Technology (UST), Daejeon 34113, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; IBS School, University of Science and Technology (UST), Daejeon 34113, Republic of Korea; Department of Physics and Astronomy, Seoul National University, Seoul 08826, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Physics Institute, University of São Paulo, 05508-090, São Paulo, Brazil; Department of Physics and Wright Laboratory, Yale University, New Haven, Connecticut 06520, USA; Department of Physics and Astronomy, University of Sheffield, Sheffield S3 7RH, United Kingdom; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; IBS School, University of Science and Technology (UST), Daejeon 34113, Republic of Korea; Department of Accelerator Science, Korea University, Sejong 30019, Republic of Korea; Korea Research Institute of Standards and Science, Daejeon 34113, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Physics, Kyungpook National University, Daegu 41566, Republic of Korea; Physics Institute, University of São Paulo, 05508-090, São Paulo, Brazil; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Physics and Astronomy, University of Utah, Salt Lake City, Utah 84112, USA; Department of Physics, Sungkyunkwan University, Suwon 16419, Republic of Korea; Center for Underground Physics, Institute for Basic Science (IBS), Daejeon 34126, Republic of Korea; Department of Physics and Astronomy, University of Sheffield, Sheffield S3 7RH, United Kingdom; Department of Physics and Astronomy, University of Sheffield, Sheffield S3 7RH, United Kingdom; Department of Physics and Wright Laboratory, Yale University, New Haven, Connecticut 06520, USA; Department of Physics, University of California San Diego, La Jolla, California 92093, USA; Department of Physics, Sungkyunkwan University, Suwon 16419, Republic of Korea; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213173500</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Searching for low-mass dark matter via the Migdal effect in COSINE-100</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-02-22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Physical review</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Physical Society</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1103/physrevd.105.042006</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1103/physrevd.105.042006</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3212917397</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Three-year annual modulation search with COSINE-100</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Physical review</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Physical Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1103/physrevd.106.052005</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1103/physrevd.106.052005</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3184759915</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The environmental monitoring system at the COSINE-100 experiment</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Instrumentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Institute of Physics</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1748-0221/17/01/t01001</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1748-0221/17/01/t01001</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>TRIUMF, Vancouver, BC, V6T 2A3, Canada; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, 100049, China; TRIUMF, Vancouver, Canada; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, 100049, China; Brookhaven National Laboratory, Upton, USA; Brookhaven National Laboratory, Upton, USA; Brookhaven National Laboratory, Upton, USA; Department of Physics, Drexel University, Philadelphia, USA; Brookhaven National Laboratory, Upton, USA; Physics Department, McGill University, Montréal, Canada; TRIUMF, Vancouver, BC, V6T 2A3, Canada; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, MA, 01003, USA; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, USA; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, USA; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, USA; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, USA; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, USA; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, USA; Wright Laboratory, Department of Physics, Yale University, New Haven, USA; Wright Laboratory, Department of Physics, Yale University, New Haven, CT, 06511, USA; Wright Laboratory, Department of Physics, Yale University, New Haven, USA; Department of Physics, University of California San Diego, La Jolla, USA; Physics Department, McGill University, Montréal, Canada; Physics Department, Stanford University, Stanford, USA; Pacific Northwest National Laboratory, Richland, USA; Université de Sherbrooke, Sherbrooke, Canada; Department of Physics, Carleton University, Ottawa, ON, K1S 5B6, Canada; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, USA; National Research Center “Kurchatov Institute”, Moscow, Russia; Lawrence Livermore National Laboratory, Livermore, USA; Department of Physics and Astronomy, University of Kentucky, Lexington, USA; SLAC National Accelerator Laboratory, Menlo Park, USA; Lawrence Livermore National Laboratory, Livermore, USA; Department of Physics, Applied Physics and Astronomy, Rensselaer Polytechnic Institute, Troy, USA; Physics Department, McGill University, Montréal, QC, H3A 2T8, Canada; Institute of Microelectronics, Chinese Academy of Sciences, Beijing, China; Physics Department, McGill University, Montréal, Canada; Department of Physics, Carleton University, Ottawa, Canada; Université de Sherbrooke, Sherbrooke, Canada; Department of Physics and Astronomy, University of Alabama, Tuscaloosa, USA; Brookhaven National Laboratory, Upton, USA; School of Natural Sciences, Laurentian University, Sudbury, ON, P3E 2C6, Canada; Department of Physics, Carleton University, Ottawa, Canada; TRIUMF, Vancouver, Canada; Physics Department, Stanford University, Stanford, USA; Department of Physics and Physical Oceanography, University of North Carolina at Wilmington, Wilmington, USA; Université de Sherbrooke, Sherbrooke, Canada; Physics Department, Stanford University, Stanford, USA; Pacific Northwest National Laboratory, Richland, USA; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, China; Department of Physics, Drexel University, Philadelphia, USA; SLAC National Accelerator Laboratory, Menlo Park, USA; Physics Department, University of Illinois, Urbana-Champaign, USA; Department of Physics, Drexel University, Philadelphia, USA; Department of Physics, Carleton University, Ottawa, Canada; Oak Ridge National Laboratory, Oak Ridge, USA; Physics Department, Colorado State University, Fort Collins, USA; Department of Physics, Carleton University, Ottawa, ON, K1S 5B6, Canada; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, 100049, China; Physics Department, McGill University, Montréal, Canada; Department of Physics, Drexel University, Philadelphia, USA; Brookhaven National Laboratory, Upton, USA; Physics Department, McGill University, Montréal, Canada; Department of Physics, Carleton University, Ottawa, ON, K1S 5B6, Canada; Department of Physics, Carleton University, Ottawa, Canada; Physics Department, Stanford University, Stanford, USA; Physics Department, Stanford University, Stanford, USA; Lawrence Livermore National Laboratory, Livermore, USA; Lawrence Livermore National Laboratory, Livermore, USA; Skyline College, San Bruno, USA; TRIUMF, Vancouver, Canada; Pacific Northwest National Laboratory, Richland, USA; Erlangen Centre for Astroparticle Physics (ECAP), Friedrich-Alexander University Erlangen-Nürnberg, Erlangen, Germany; Lawrence Livermore National Laboratory, Livermore, USA; Lawrence Livermore National Laboratory, Livermore, USA; Physics Department, Colorado State University, Fort Collins, USA; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, China; National Research Center “Kurchatov Institute”, Moscow, Russia; SLAC National Accelerator Laboratory, Menlo Park, USA; TRIUMF, Vancouver, BC, V6T 2A3, Canada; National Research Center “Kurchatov Institute”, Moscow, Russia; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, USA; Department of Physics, University of South Dakota, Vermillion, USA; Department of Physics, Colorado School of Mines, Colorado School of Mines, Golden, USA; Physics Department, Stanford University, Stanford, USA; IBS Center for Underground Physics, Daejeon, Korea; Université de Sherbrooke, Sherbrooke, Canada; Physics Department, Stanford University, Stanford, CA, 94305, USA; Department of Physics, Carleton University, Ottawa, ON, K1S 5B6, Canada; Department of Physics, University of California San Diego, La Jolla, USA; Department of Physics, Carleton University, Ottawa, ON, K1S 5B6, Canada; Department of Physics and Astronomy, University of the Western Cape, Bellville, South Africa; Department of Physics and Astronomy, University of Kentucky, Lexington, USA; TRIUMF, Vancouver, Canada; Physics Department, McGill University, Montréal, Canada; TRIUMF, Vancouver, Canada; TRIUMF, Vancouver, Canada; Université de Sherbrooke, Sherbrooke, Canada; TRIUMF, Vancouver, Canada; SUBATECH, IMT Atlantique, CNRS/IN2P3, Université de Nantes, 44307, Nantes, France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296414183</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Performance of novel VUV-sensitive Silicon Photo-Multipliers for nEXO</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-12-13</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The European Physical Journal C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1140/epjc/s10052-022-11072-8</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1140/epjc/s10052-022-11072-8</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine McLaren‐Flint/MSU  Flint Michigan USA; Department of Internal Medicine McLaren‐Flint/MSU  Flint Michigan USA; Department of Internal Medicine McLaren‐Flint/MSU  Flint Michigan USA; Department of Cardiology McLaren‐Flint/MSU  Flint Michigan USA; Department of Internal Medicine McLaren‐Flint/MSU  Flint Michigan USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282946516</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>A unique case of tachycardia‐mediated cardiomyopathy in a patient misusing anabolic steroids</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Clinical Case Reports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ccr3.5976</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35734186</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ccr3.5976</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Tribhuvan University; Public Health and Social Protection Professional, Kathmandu, Nepal; Tribhuvan University - Padmakanya Multiple Campus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220858696</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Occupational and geographical differentials in financial protection against healthcare out-of-pocket payments in Nepal: evidence for universal health coverage</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-03-09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Research Square (Research Square)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Research Square (United States)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-1392822/v1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-1392822/v1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA; McLaren Regional Medical Center/Michigan State University, Flint, MI, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220963418</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>OUTCOMES OF HOSPITALIZED PATIENTS WITH ACUTE ISCHEMIC STROKE AND CONCOMITANT NSTEMI - ANALYSIS FROM 2016-2019 NATIONAL INPATIENT SAMPLE</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)02072-1</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)02072-1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Cairo University, Cairo, Egypt; McLaren Health Care, Flint/Michigan State University, Flint, MI, USA; Cairo University, Cairo, Egypt; McLaren Health Care, Flint/Michigan State University, Flint, MI, USA; Cairo University, Cairo, Egypt; McLaren Health Care, Flint/Michigan State University, Flint, MI, USA; Cairo University, Cairo, Egypt; McLaren Health Care, Flint/Michigan State University, Flint, MI, USA; Cairo University, Cairo, Egypt; McLaren Health Care, Flint/Michigan State University, Flint, MI, USA; Cairo University, Cairo, Egypt; McLaren Health Care, Flint/Michigan State University, Flint, MI, USA; Cairo University, Cairo, Egypt; McLaren Health Care, Flint/Michigan State University, Flint, MI, USA; Cairo University, Cairo, Egypt; McLaren Health Care, Flint/Michigan State University, Flint, MI, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220993569</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>DE-ESCALATION FROM PRASUGREL OR TICAGRELOR TO CLOPIDOGREL IN ACUTE CORONARY SYNDROME PATIENTS UNDERGOING PERCUTANEOUS CORONARY INTERVENTION: A META-ANALYSIS OF RANDOMIZED CLINICAL TRIALS</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)04462-x</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)04462-x</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221033130</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>TRENDS AND OUTCOMES OF ACUTE HEART FAILURE WITH UNDERLYING AMYLOIDOSIS - A RETROSPECTIVE COHORT STUDY FROM 2016-2019 NATIONAL INPATIENT SAMPLE DATABASE</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01347-x</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01347-x</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA; McLaren Flint/Michigan State University, Flint, MI, USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221133090</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>TELE-BASED VIRTUAL BP MANAGEMENT BY PHARMACIST OR NURSE PRACTITIONER VERSUS OFFICE-BASED PCP LED INTERVENTION IN MANAGEMENT OF SYSTOLIC BP. A SYSTEMATIC REVIEW AND META-ANALYSIS</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)02570-0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)02570-0</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Physics Department, Stanford University, Stanford, CA 94305, U.S.A.; Physics Department, Stanford University, Stanford, CA 94305, U.S.A.; Department of Physics and Astronomy, University of Alabama, Tuscaloosa, AL 35405, U.S.A.; Department of Physics and Astronomy, University of the Western Cape, P/B X17 Bellville 7535, South Africa; Department of Physics and Astronomy, University of Alabama, Tuscaloosa, AL 35405, U.S.A.; Department of Physics and Astronomy, University of the Western Cape, P/B X17 Bellville 7535, South Africa; Wright Laboratory, Department of Physics, Yale University, New Haven, CT 06511, U.S.A.; Physics Department, University of California, San Diego, CA 92093, U.S.A.; Physics Department, McGill University, Montréal, Québec H3A 2T8, Canada; Physics Department, Stanford University, Stanford, CA 94305, U.S.A.; Pacific Northwest National Laboratory, Richland, WA 99352, U.S.A.; Institute for Theoretical and Experimental Physics named by A. I. Alikhanov of National Research Center Kurchatov Institute, Moscow, 117218, Russia; Lawrence Livermore National Laboratory, Livermore, CA 94550, U.S.A.; Wright Laboratory, Department of Physics, Yale University, New Haven, CT 06511, U.S.A.; Department of Physics and Astronomy, University of Kentucky, Lexington, KY 40506, U.S.A.; Brookhaven National Laboratory, Upton, NY 11973-5000, U.S.A.; SLAC National Accelerator Laboratory, Menlo Park, CA 94025-1003, U.S.A.; Lawrence Livermore National Laboratory, Livermore, CA 94550, U.S.A.; Department of Physics, Applied Physics, and Astronomy, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.; Physics Department, McGill University, Montréal, Québec H3A 2T8, Canada; TRIUMF, Vancouver, BC V6T 2A3, Canada; SNOLAB, Sudbury, ON P3E 2C6, Canada; School of Biological, Chemical, and Fornesic Sciences, Laurentian University, Sudbury, ON P3E 2C6, Canada; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, 100049, China; Institute of Microelectronics, Chinese Academy of Sciences, Beijing, 100029, China; Department of Physics, Carleton University, Ottawa, Ontario, K1S 5B6, Canada; Université de Sherbrooke, Sherbrooke, Québec J1K 2R1, Canada; Department of Physics and Astronomy, University of Alabama, Tuscaloosa, AL 35405, U.S.A.; Brookhaven National Laboratory, Upton, NY 11973-5000, U.S.A.; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, MA 01003, U.S.A.; Department of Physics, Carleton University, Ottawa, Ontario, K1S 5B6, Canada; Physics Department, Stanford University, Stanford, CA 94305, U.S.A.; Department of Physics and Physical Oceanography, University of North Carolina Wilmington, Wilmington, MC 28403, U.S.A.; Physics Department, McGill University, Montréal, Québec H3A 2T8, Canada; Physics Department, Stanford University, Stanford, CA 94305, U.S.A.; Pacific Northwest National Laboratory, Richland, WA 99352, U.S.A.; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, 100049, China; Department of Physics, Drexel University, Philadelphia, PA 19104, U.S.A.; Physics Department, University of Illinois, Urbana, IL 61801, U.S.A.; Department of Physics, Drexel University, Philadelphia, PA 19104, U.S.A.; Department of Physics, Carleton University, Ottawa, Ontario, K1S 5B6, Canada; Oak Ridge National Laboratory, Oak Ridge, TN 37831, U.S.A.; Physics Department, Colorado State University, Fort Collins, CO 80523, U.S.A.; Physics Department, Colorado State University, Fort Collins, CO 80523, U.S.A.; SNOLAB, Sudbury, ON P3E 2C6, Canada; School of Biological, Chemical, and Fornesic Sciences, Laurentian University, Sudbury, ON P3E 2C6, Canada; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, 100049, China; Department of Physics and Astronomy, University of British Columbia, Vancouver, BC V6T 1Z1, Canada; TRIUMF, Vancouver, BC V6T 2A3, Canada; Department of Physics, Drexel University, Philadelphia, PA 19104, U.S.A.; Brookhaven National Laboratory, Upton, NY 11973-5000, U.S.A.; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, MA 01003, U.S.A.; Physics Department, McGill University, Montréal, Québec H3A 2T8, Canada; Department of Physics, Carleton University, Ottawa, Ontario, K1S 5B6, Canada; Physics Department, Stanford University, Stanford, CA 94305, U.S.A.; Pacific Northwest National Laboratory, Richland, WA 99352, U.S.A.; Lawrence Livermore National Laboratory, Livermore, CA 94550, U.S.A.; Skyline College, San Bruno, CA 94066, U.S.A.; Erlangen Centre for Astroparticle Physics (ECAP), Friedrich-Alexander University Erlangen-Nurnberg, Erlangen 91058, Germany; Lawrence Livermore National Laboratory, Livermore, CA 94550, U.S.A.; Physics Department, Colorado State University, Fort Collins, CO 80523, U.S.A.; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, 100049, China; Institute for Theoretical and Experimental Physics named by A. I. Alikhanov of National Research Center Kurchatov Institute, Moscow, 117218, Russia; SLAC National Accelerator Laboratory, Menlo Park, CA 94025-1003, U.S.A.; Department of Physics and Astronomy, University of British Columbia, Vancouver, BC V6T 1Z1, Canada; TRIUMF, Vancouver, BC V6T 2A3, Canada; Institute for Theoretical and Experimental Physics named by A. I. Alikhanov of National Research Center Kurchatov Institute, Moscow, 117218, Russia; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, MA 01003, U.S.A.; Department of Physics, University of South Dakota, Vermillion, SD 57069, U.S.A.; Department of Physics, Colorado School of Mines, Golden, CO 80401, U.S.A.; IBS Center for Underground Physics, Daejeon, 34126, Korea; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, 100049, China; Physics Department, University of Illinois, Urbana, IL 61801, U.S.A.; Physics Department, University of California, San Diego, CA 92093, U.S.A.; SNOLAB, Sudbury, ON P3E 2C6, Canada; School of Biological, Chemical, and Fornesic Sciences, Laurentian University, Sudbury, ON P3E 2C6, Canada; Department of Physics and Astronomy, University of the Western Cape, P/B X17 Bellville 7535, South Africa; Department of Physics and Astronomy, University of Kentucky, Lexington, KY 40506, U.S.A.; SUBATECH, IMT Atlantique, CNRS/IN2P3, Université de Nantes, Nantes 44307, France; Department of Physics, Applied Physics, and Astronomy, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.; Physics Department, McGill University, Montréal, Québec H3A 2T8, Canada; SLAC National Accelerator Laboratory, Menlo Park, CA 94025-1003, U.S.A.; Wright Laboratory, Department of Physics, Yale University, New Haven, CT 06511, U.S.A.; Physics Department, McGill University, Montréal, Québec H3A 2T8, Canada; Oak Ridge National Laboratory, Oak Ridge, TN 37831, U.S.A.; Department of Physics, Colorado School of Mines, Golden, CO 80401, U.S.A.; Department of Physics and Astronomy, University of the Western Cape, P/B X17 Bellville 7535, South Africa; Physics Department, University of California, San Diego, CA 92093, U.S.A.; Institute of High Energy Physics, Chinese Academy of Sciences, Beijing, 100049, China; Pacific Northwest National Laboratory, Richland, WA 99352, U.S.A.; Pacific Northwest National Laboratory, Richland, WA 99352, U.S.A.; Department of Physics and Astronomy, University of Alabama, Tuscaloosa, AL 35405, U.S.A.; Pacific Northwest National Laboratory, Richland, WA 99352, U.S.A.; School of Biological, Chemical, and Fornesic Sciences, Laurentian University, Sudbury, ON P3E 2C6, Canada; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, MA 01003, U.S.A.; Amherst Center for Fundamental Interactions and Physics Department, University of Massachusetts, Amherst, MA 01003, U.S.A.; Université de Sherbrooke, Sherbrooke, Québec J1K 2R1, Canada; Physics Department, Stanford University, Stanford, CA 94305, U.S.A.; Brookhaven National Laboratory, Upton, NY 11973-5000, U.S.A.; Department of Physics and Astronomy, University of the Western Cape, P/B X17 Bellville 7535, South Africa; Physics Department, McGill University, Montréal, Québec H3A 2T8, Canada; TRIUMF, Vancouver, BC V6T 2A3, Canada; Wright Laboratory, Department of Physics, Yale University, New Haven, CT 06511, U.S.A.; Department of Physics, Drexel University, Philadelphia, PA 19104, U.S.A.; Department of Physics, Colorado School of Mines, Golden, CO 80401, U.S.A.; SLAC National Accelerator Laboratory, Menlo Park, CA 94025-1003, U.S.A.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221145892</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Development of a &lt;sup&gt;127&lt;/sup&gt;Xe calibration source for nEXO</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Journal of Instrumentation</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Institute of Physics</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1748-0221/17/07/p07028</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1748-0221/17/07/p07028</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; Laboratoire d'Annecy-le-Vieux de Physique Théorique; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221162457</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Snowmass2021 Cosmic Frontier White Paper: Puzzling Excesses in Dark Matter Searches and How to Resolve Them</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-04-05</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>HAL (Le Centre pour la Communication Scientifique Directe)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>French National Centre for Scientific Research</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://hal.science/hal-03631353</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,76 +1496,81 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281385861</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Snowmass2021 Cosmic Frontier White Paper: Puzzling Excesses in Dark
   Matter Searches and How to Resolve Them</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-03-14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>arXiv (Cornell University)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Cornell University</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2203.06859</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2203.06859</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1514,75 +1584,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, McLaren-Flint/Michigan State University, Flint, Michigan; Department of Internal Medicine, McLaren-Flint/Michigan State University, Flint, Michigan; Department of Internal Medicine, McLaren-Flint/Michigan State University, Flint, Michigan; Kent and Medway Medical School, Canterbury, UK; Department of Internal Medicine, McLaren-Flint/Michigan State University, Flint, Michigan; Department of Internal Medicine, McLaren-Flint/Michigan State University, Flint, Michigan; Department of Internal Medicine, McLaren-Flint/Michigan State University, Flint, Michigan; Department of Internal Medicine, McLaren-Flint/Michigan State University, Flint, Michigan; Department of Internal Medicine, McLaren-Flint/Michigan State University, Flint, Michigan; Department of Internal Medicine, McLaren-Flint/Michigan State University, Flint, Michigan; Department of Internal Medicine, McLaren-Flint/Michigan State University, Flint, Michigan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281742885</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Meta-analysis examining phosphodiesterase-5 inhibitors in heart failure with preserved ejection fraction</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-05-31</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Baylor University Medical Center Proceedings</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/08998280.2022.2078633</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35991724</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/08998280.2022.2078633</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1596,75 +1671,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Padma Kanya Multiple Campus, Bagbazar, Kathmandu, Nepal; Mahendra Ratna Campus, Tahachal, Kathmandu, Nepal</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286347631</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Status of Nepalese Orphan through Parental Death in Foreign Labour Migration</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-01-31</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Cognition</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.3126/cognition.v4i1.46439</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.3126/cognition.v4i1.46439</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1678,75 +1758,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Department of Population Studies, Padma Kanya Multiple Campus</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313650954</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Importance of Demography in Business Planning Regarding Nepal</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-12-24</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Voice of Teacher</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.3126/vot.v7i01.51028</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.3126/vot.v7i01.51028</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1760,75 +1845,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>McLaren Flint, Flint, MI; RUSH UNIVERSITY, Chicago, IL; Tower Health-Reading Hosp; Dept of Internal medicine, Univ of Arizona College of Medicine, Tucson, AZ; McLaren Flint; SUNY Upstate Med Univ; Spectrum Health, Grand Rapids, MI; Dept of Internal medicine, McLaren Flint, Flint, MI; McLaren Flint, Flint, MI; McLaren Flint, Flint, MI; McLaren Flint, Flint, MI; McLaren Flint, Flint, MI; McLaren Flint, Flint, MI; McLaren Flint, Flint, MI; Univ of Tennessee Nashville, Nashville, TN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380794365</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Abstract 12160: Sex Differences in Outcomes of Percutaneous Coronary Intervention in Octogenarians: A Retrospective Cohort Study From National Inpatient Sample 2016-2019</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.12160</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.12160</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1842,75 +1932,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Internal Medicine, Banner Health/Univ of Arizona Health Sciences Cntr, Tuscon, AZ; McLaren Health Care/Michigan State Univ, Flint, MI; Internal Medicine, McLaren Health Care/Michigan State Univ, Flint, MI; McLaren Health Care/Michigan State Univ, Flint, MI; Internal Medicine, McLaren Health Care/Michigan State Univ, Flint, MI; Michigan State Univ, MI; McLaren Health Care/Michigan State Univ, Flint, MI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380795698</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Abstract 14680: Outcomes of Coronary Artery Bypass Graft in Patients With Atrial Fibrillation - A Study From National Inpatient Database 2016-2019</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14680</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14680</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
